--- a/C61/sprint0/Planification.xlsx
+++ b/C61/sprint0/Planification.xlsx
@@ -1,29 +1,428 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="686" documentId="11_38EC70ADA78A0EB7174CF7510F4AEA2757950155" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4F8B5ED-19FA-4D27-BF5D-A93070519C8F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{087A1B5B-7B97-4327-AC94-7D0ECF997B43}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tâche" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D03BFD82-BEC6-4AF6-AC0A-33BB5FE1EB7C}</author>
+    <author>tc={8B5DD484-BCD7-4686-A885-EE89CDD7112B}</author>
+    <author>tc={087CD55D-58EC-48D4-8992-171E3C71240E}</author>
+    <author>tc={F071BD88-83D8-45D1-9623-1B860E7BC01F}</author>
+    <author>tc={C2B3AC2F-28C3-4952-BA91-93B211AB2F4F}</author>
+    <author>tc={E16027F6-E85F-466C-8340-180FD48725E3}</author>
+    <author>tc={4BC97265-9CFF-4A0E-A88F-215EBF6D17A2}</author>
+    <author>tc={F501DA8F-AC89-4863-9C60-D463FCFE5F2A}</author>
+    <author>tc={D204441F-51EE-4186-A727-EBDD5DA10470}</author>
+    <author>tc={3367B78D-0720-4FEB-BC50-22D73F333487}</author>
+    <author>tc={83F74847-9C65-413D-BE80-3961283C7E57}</author>
+    <author>tc={BE227812-E4E3-4D1F-8DF9-96F6E4C044A2}</author>
+    <author>tc={555A5B85-94E0-48EF-8F8B-B9A7586D8670}</author>
+    <author>tc={A863DC0D-0E01-4D37-B309-BA5E9456A4BC}</author>
+    <author>tc={7344EECC-6905-4C41-B2C7-887475BFB32F}</author>
+  </authors>
+  <commentList>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{D03BFD82-BEC6-4AF6-AC0A-33BB5FE1EB7C}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    On mettra un fichier React qui est capable d'interagir avec le site-web</t>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="1" shapeId="0" xr:uid="{8B5DD484-BCD7-4686-A885-EE89CDD7112B}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    On mettra en place un middleware très basique avec un API qu'on appellera à partir du site web. Pour tester l'API, on créera une application Python naïve qui retournera un tableau dépendemment de ce qu'on lui demande. Si le middleware fonctionne, on aura tout simplement qu'à le "ploguer" à notre backend en python</t>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="2" shapeId="0" xr:uid="{087CD55D-58EC-48D4-8992-171E3C71240E}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    L'interface avec les salles, les horaires des salles, les réservation s'il y en a une, le calendrier, ainsi que les autres éléments du tableau de bord. Tous les éléments auront un OnClick, mais les pages qui n'ont pas encore été créées retourneront seulement un message dans la console qui dit "tel élément a été cliqué".</t>
+      </text>
+    </comment>
+    <comment ref="G27" authorId="3" shapeId="0" xr:uid="{F071BD88-83D8-45D1-9623-1B860E7BC01F}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Ici il s'agit de créer toutes les classes DAO qui sont reliés à nos classes. Les classes en exemple EmployeDAO, SalleDAO, ReservationDAO, etc.</t>
+      </text>
+    </comment>
+    <comment ref="C34" authorId="4" shapeId="0" xr:uid="{C2B3AC2F-28C3-4952-BA91-93B211AB2F4F}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    La page permettra aussi d'y ajouter une salle</t>
+      </text>
+    </comment>
+    <comment ref="G34" authorId="5" shapeId="0" xr:uid="{E16027F6-E85F-466C-8340-180FD48725E3}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Implémenter la stratégie pour l'algorithme</t>
+      </text>
+    </comment>
+    <comment ref="C41" authorId="6" shapeId="0" xr:uid="{4BC97265-9CFF-4A0E-A88F-215EBF6D17A2}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    La page de nouvel horaire comprendra aussi un Pop-Up. Je n'ai jamais fait de "Pop-up" en javascript ni en React, donc le temps de conception est plus-ou-moins incertain</t>
+      </text>
+    </comment>
+    <comment ref="G48" authorId="7" shapeId="0" xr:uid="{F501DA8F-AC89-4863-9C60-D463FCFE5F2A}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Ici on parle de faire la logique interne de l'application en créant les classes qui l'appliqueront.</t>
+      </text>
+    </comment>
+    <comment ref="C55" authorId="8" shapeId="0" xr:uid="{D204441F-51EE-4186-A727-EBDD5DA10470}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Elle sera comme celle d'un employé, mais elle n'affichera que les plages horaires disponibles et non les détails des autres réservations</t>
+      </text>
+    </comment>
+    <comment ref="C62" authorId="9" shapeId="0" xr:uid="{3367B78D-0720-4FEB-BC50-22D73F333487}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    La page de statistiques aura la déviation standart et les heures (ou jours) ayant les meilleurs revenus</t>
+      </text>
+    </comment>
+    <comment ref="G62" authorId="10" shapeId="0" xr:uid="{83F74847-9C65-413D-BE80-3961283C7E57}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Cette tâche consiste à pouvoir intégré facilement l'horaire d'un client dans notre système à son site web pour que ses clients à lui puisse effectuer des réservations.</t>
+      </text>
+    </comment>
+    <comment ref="G69" authorId="11" shapeId="0" xr:uid="{BE227812-E4E3-4D1F-8DF9-96F6E4C044A2}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Cette tâche consiste à créer un arbre pour conserver les informations de nos clients (compagnies) et ainsi ne pas avoir à utiliser la base de données pour retrouver leur information.</t>
+      </text>
+    </comment>
+    <comment ref="C76" authorId="12" shapeId="0" xr:uid="{555A5B85-94E0-48EF-8F8B-B9A7586D8670}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    On modifie la page "créer horaire"</t>
+      </text>
+    </comment>
+    <comment ref="C83" authorId="13" shapeId="0" xr:uid="{A863DC0D-0E01-4D37-B309-BA5E9456A4BC}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    On modifie la page "créer horaire"</t>
+      </text>
+    </comment>
+    <comment ref="G90" authorId="14" shapeId="0" xr:uid="{7344EECC-6905-4C41-B2C7-887475BFB32F}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Avec Progressive Web App, si nous avons le temps, nous pourrions porter notre site web en application mobile.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="69">
+  <si>
+    <t>Équipe</t>
+  </si>
+  <si>
+    <t>Carlens Belony</t>
+  </si>
+  <si>
+    <t>Maxence Guindon</t>
+  </si>
+  <si>
+    <t>Projet</t>
+  </si>
+  <si>
+    <t>Escape Room Manager</t>
+  </si>
+  <si>
+    <t>Tâches</t>
+  </si>
+  <si>
+    <t>titre</t>
+  </si>
+  <si>
+    <t>listes des préalables</t>
+  </si>
+  <si>
+    <t>côte priorité</t>
+  </si>
+  <si>
+    <t>côte difficulté</t>
+  </si>
+  <si>
+    <t>temps estimé</t>
+  </si>
+  <si>
+    <t>sprint</t>
+  </si>
+  <si>
+    <t>nombre de tâches</t>
+  </si>
+  <si>
+    <t>temps total</t>
+  </si>
+  <si>
+    <t>difficulté moyenne</t>
+  </si>
+  <si>
+    <t>Sommaire Sprint 1</t>
+  </si>
+  <si>
+    <t>Sommaire Sprint 2</t>
+  </si>
+  <si>
+    <t>Sommaire Sprint 3</t>
+  </si>
+  <si>
+    <t>Mettre en place un middleware qui réponds à un programme Python naïf</t>
+  </si>
+  <si>
+    <t>Créer une page login avec un component React réactif</t>
+  </si>
+  <si>
+    <t>essentiel</t>
+  </si>
+  <si>
+    <t>moyen</t>
+  </si>
+  <si>
+    <t>difficile</t>
+  </si>
+  <si>
+    <t>Créer la base de donnée MySQL</t>
+  </si>
+  <si>
+    <t>facile</t>
+  </si>
+  <si>
+    <t>Créer l'application de base Flask</t>
+  </si>
+  <si>
+    <t>Création de la classe ConnexionDAO</t>
+  </si>
+  <si>
+    <t>Essentiel</t>
+  </si>
+  <si>
+    <t>Facile</t>
+  </si>
+  <si>
+    <t>Moyen</t>
+  </si>
+  <si>
+    <t>Mettre en place la page d'inscription</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>Création des classes DAO</t>
+  </si>
+  <si>
+    <t>Mettre en place la page d'accueil d'un employé connecté</t>
+  </si>
+  <si>
+    <t>Implémenter le Design Pattern Strategy</t>
+  </si>
+  <si>
+    <t>Créer l'algorithme naif</t>
+  </si>
+  <si>
+    <t>Créer les classes du modèle</t>
+  </si>
+  <si>
+    <t>Implémentation création de compte</t>
+  </si>
+  <si>
+    <t>incertain</t>
+  </si>
+  <si>
+    <t>Mettre en place la page d'accueil pour un client</t>
+  </si>
+  <si>
+    <t>souhaité</t>
+  </si>
+  <si>
+    <t>Mettre en place la page d'ajout de réservation coté employé</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>Mettre en place la page qui permet d'ajouter une succursale</t>
+  </si>
+  <si>
+    <t>Mettre en place la page de création d'horaire/de salle</t>
+  </si>
+  <si>
+    <t>Permettre d'importer un horaire existant</t>
+  </si>
+  <si>
+    <t>Créer d'autres employés</t>
+  </si>
+  <si>
+    <t>optionnel</t>
+  </si>
+  <si>
+    <t>Page de statistiques</t>
+  </si>
+  <si>
+    <t>Créer la liste chainée des réservations</t>
+  </si>
+  <si>
+    <t>Faire intégration horaire</t>
+  </si>
+  <si>
+    <t>Souhaité</t>
+  </si>
+  <si>
+    <t>Créer la fonction ajouté succursales</t>
+  </si>
+  <si>
+    <t>Peaufiner le visuel du site</t>
+  </si>
+  <si>
+    <t>optionel</t>
+  </si>
+  <si>
+    <t>Rendre l'application disponible sur téléphone</t>
+  </si>
+  <si>
+    <t>Créer les permissions des employés</t>
+  </si>
+  <si>
+    <t>1 à 23</t>
+  </si>
+  <si>
+    <t>1 à 24</t>
+  </si>
+  <si>
+    <t>330 min</t>
+  </si>
+  <si>
+    <t>120 min</t>
+  </si>
+  <si>
+    <t>240 min</t>
+  </si>
+  <si>
+    <t>60 min</t>
+  </si>
+  <si>
+    <t>180 min</t>
+  </si>
+  <si>
+    <t>210 min</t>
+  </si>
+  <si>
+    <t>300 min</t>
+  </si>
+  <si>
+    <t>900 min</t>
+  </si>
+  <si>
+    <t>600 min</t>
+  </si>
+  <si>
+    <t>Créer un arbre pour compagnie</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -37,7 +436,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -45,12 +444,241 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -69,7 +697,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -85,7 +713,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +725,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -114,7 +742,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -144,12 +772,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -179,6 +824,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -329,14 +991,2033 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C6" dT="2022-09-22T18:45:37.26" personId="{00000000-0000-0000-0000-000000000000}" id="{D03BFD82-BEC6-4AF6-AC0A-33BB5FE1EB7C}">
+    <text>On mettra un fichier React qui est capable d'interagir avec le site-web</text>
+  </threadedComment>
+  <threadedComment ref="C13" dT="2022-09-22T18:49:42.36" personId="{00000000-0000-0000-0000-000000000000}" id="{8B5DD484-BCD7-4686-A885-EE89CDD7112B}">
+    <text>On mettra en place un middleware très basique avec un API qu'on appellera à partir du site web. Pour tester l'API, on créera une application Python naïve qui retournera un tableau dépendemment de ce qu'on lui demande. Si le middleware fonctionne, on aura tout simplement qu'à le "ploguer" à notre backend en python</text>
+  </threadedComment>
+  <threadedComment ref="C27" dT="2022-09-22T19:25:47.12" personId="{00000000-0000-0000-0000-000000000000}" id="{087CD55D-58EC-48D4-8992-171E3C71240E}">
+    <text>L'interface avec les salles, les horaires des salles, les réservation s'il y en a une, le calendrier, ainsi que les autres éléments du tableau de bord. Tous les éléments auront un OnClick, mais les pages qui n'ont pas encore été créées retourneront seulement un message dans la console qui dit "tel élément a été cliqué".</text>
+  </threadedComment>
+  <threadedComment ref="G27" dT="2022-09-22T19:21:02.87" personId="{00000000-0000-0000-0000-000000000000}" id="{F071BD88-83D8-45D1-9623-1B860E7BC01F}">
+    <text>Ici il s'agit de créer toutes les classes DAO qui sont reliés à nos classes. Les classes en exemple EmployeDAO, SalleDAO, ReservationDAO, etc.</text>
+  </threadedComment>
+  <threadedComment ref="C34" dT="2022-09-22T19:25:47.12" personId="{00000000-0000-0000-0000-000000000000}" id="{C2B3AC2F-28C3-4952-BA91-93B211AB2F4F}">
+    <text>La page permettra aussi d'y ajouter une salle</text>
+  </threadedComment>
+  <threadedComment ref="G34" dT="2022-09-22T19:24:27.56" personId="{00000000-0000-0000-0000-000000000000}" id="{E16027F6-E85F-466C-8340-180FD48725E3}">
+    <text>Implémenter la stratégie pour l'algorithme</text>
+  </threadedComment>
+  <threadedComment ref="C41" dT="2022-09-22T19:25:47.12" personId="{00000000-0000-0000-0000-000000000000}" id="{4BC97265-9CFF-4A0E-A88F-215EBF6D17A2}">
+    <text>La page de nouvel horaire comprendra aussi un Pop-Up. Je n'ai jamais fait de "Pop-up" en javascript ni en React, donc le temps de conception est plus-ou-moins incertain</text>
+  </threadedComment>
+  <threadedComment ref="G48" dT="2022-09-27T01:00:31.37" personId="{00000000-0000-0000-0000-000000000000}" id="{F501DA8F-AC89-4863-9C60-D463FCFE5F2A}">
+    <text>Ici on parle de faire la logique interne de l'application en créant les classes qui l'appliqueront.</text>
+  </threadedComment>
+  <threadedComment ref="C55" dT="2022-09-22T19:25:47.12" personId="{00000000-0000-0000-0000-000000000000}" id="{D204441F-51EE-4186-A727-EBDD5DA10470}">
+    <text>Elle sera comme celle d'un employé, mais elle n'affichera que les plages horaires disponibles et non les détails des autres réservations</text>
+  </threadedComment>
+  <threadedComment ref="C62" dT="2022-09-22T19:25:47.12" personId="{00000000-0000-0000-0000-000000000000}" id="{3367B78D-0720-4FEB-BC50-22D73F333487}">
+    <text>La page de statistiques aura la déviation standart et les heures (ou jours) ayant les meilleurs revenus</text>
+  </threadedComment>
+  <threadedComment ref="G62" dT="2022-09-27T00:35:53.91" personId="{00000000-0000-0000-0000-000000000000}" id="{83F74847-9C65-413D-BE80-3961283C7E57}">
+    <text>Cette tâche consiste à pouvoir intégré facilement l'horaire d'un client dans notre système à son site web pour que ses clients à lui puisse effectuer des réservations.</text>
+  </threadedComment>
+  <threadedComment ref="G69" dT="2022-09-22T19:25:47.12" personId="{00000000-0000-0000-0000-000000000000}" id="{BE227812-E4E3-4D1F-8DF9-96F6E4C044A2}">
+    <text>Cette tâche consiste à créer un arbre pour conserver les informations de nos clients (compagnies) et ainsi ne pas avoir à utiliser la base de données pour retrouver leur information.</text>
+  </threadedComment>
+  <threadedComment ref="C76" dT="2022-09-22T19:25:47.12" personId="{00000000-0000-0000-0000-000000000000}" id="{555A5B85-94E0-48EF-8F8B-B9A7586D8670}">
+    <text>On modifie la page "créer horaire"</text>
+  </threadedComment>
+  <threadedComment ref="C83" dT="2022-09-22T19:25:47.12" personId="{00000000-0000-0000-0000-000000000000}" id="{A863DC0D-0E01-4D37-B309-BA5E9456A4BC}">
+    <text>On modifie la page "créer horaire"</text>
+  </threadedComment>
+  <threadedComment ref="G90" dT="2022-09-27T00:42:23.41" personId="{00000000-0000-0000-0000-000000000000}" id="{7344EECC-6905-4C41-B2C7-887475BFB32F}">
+    <text>Avec Progressive Web App, si nous avons le temps, nous pourrions porter notre site web en application mobile.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7EDC20-7B7C-4A7E-972E-FECEFF2E9DC1}">
+  <dimension ref="B2:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="F5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="34">
+        <v>2</v>
+      </c>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="28">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="F10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="26">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="29">
+        <v>3</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="F12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="34">
+        <v>4</v>
+      </c>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="F15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="F16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="27">
+        <v>1</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="F17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="25">
+        <v>1</v>
+      </c>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="F19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="34">
+        <v>6</v>
+      </c>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="F22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="F23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="28">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="F24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="26">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="19">
+        <v>7</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="F26" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="34">
+        <v>8</v>
+      </c>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="16">
+        <v>4</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="16">
+        <v>6</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="F30" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="27">
+        <v>1</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="F31" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="25">
+        <v>1</v>
+      </c>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="19">
+        <v>9</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="F33" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="34">
+        <v>10</v>
+      </c>
+      <c r="H33" s="22"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="16">
+        <v>7</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="F36" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="F37" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="16"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="27">
+        <v>1</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="F38" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="25">
+        <v>1</v>
+      </c>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="29">
+        <v>11</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="F40" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="34">
+        <v>12</v>
+      </c>
+      <c r="H40" s="22"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="7">
+        <v>9</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="F43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="F44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="28">
+        <v>1</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="F45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="26">
+        <v>1</v>
+      </c>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="29">
+        <v>13</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="F47" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="34">
+        <v>14</v>
+      </c>
+      <c r="H47" s="22"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="16">
+        <v>11</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="16"/>
+      <c r="F50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="16"/>
+      <c r="F51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="27">
+        <v>1</v>
+      </c>
+      <c r="D52" s="18"/>
+      <c r="F52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="26">
+        <v>1</v>
+      </c>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="19">
+        <v>15</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="F54" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="34">
+        <v>16</v>
+      </c>
+      <c r="H54" s="22"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="F56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="F57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H58" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="28">
+        <v>2</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="F59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="26">
+        <v>2</v>
+      </c>
+      <c r="H59" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="19">
+        <v>17</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="F61" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="19">
+        <v>18</v>
+      </c>
+      <c r="H61" s="14"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="16">
+        <v>13</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="16"/>
+      <c r="F64" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="16"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="16"/>
+      <c r="F65" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H65" s="16"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="27">
+        <v>2</v>
+      </c>
+      <c r="D66" s="18"/>
+      <c r="F66" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="27">
+        <v>2</v>
+      </c>
+      <c r="H66" s="18"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="34">
+        <v>19</v>
+      </c>
+      <c r="D68" s="22"/>
+      <c r="F68" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" s="19">
+        <v>20</v>
+      </c>
+      <c r="H68" s="14"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="7">
+        <v>11</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="7">
+        <v>12</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H71" s="16"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" s="7">
+        <v>18</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H72" s="16"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="26">
+        <v>2</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="F73" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="27">
+        <v>2</v>
+      </c>
+      <c r="H73" s="18"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="19">
+        <v>21</v>
+      </c>
+      <c r="D75" s="14"/>
+      <c r="F75" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="19">
+        <v>22</v>
+      </c>
+      <c r="H75" s="14"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" s="16">
+        <v>13</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H77" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" s="16"/>
+      <c r="F78" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" s="16"/>
+      <c r="F79" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H79" s="16"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="27">
+        <v>3</v>
+      </c>
+      <c r="D80" s="18"/>
+      <c r="F80" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="27">
+        <v>3</v>
+      </c>
+      <c r="H80" s="18"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="19">
+        <v>23</v>
+      </c>
+      <c r="D82" s="14"/>
+      <c r="F82" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" s="34">
+        <v>24</v>
+      </c>
+      <c r="H82" s="22"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H83" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D84" s="16">
+        <v>20</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H84" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85" s="16"/>
+      <c r="F85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" s="16"/>
+      <c r="F86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="27">
+        <v>3</v>
+      </c>
+      <c r="D87" s="18"/>
+      <c r="F87" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="26">
+        <v>3</v>
+      </c>
+      <c r="H87" s="8"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="34">
+        <v>25</v>
+      </c>
+      <c r="D89" s="22"/>
+      <c r="F89" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="34">
+        <v>26</v>
+      </c>
+      <c r="H89" s="22"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="H90" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="7"/>
+      <c r="F92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D93" s="7"/>
+      <c r="F93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="26">
+        <v>3</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="F94" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="26">
+        <v>3</v>
+      </c>
+      <c r="H94" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33C5933-8656-45BF-A701-B91E46E93EF4}">
+  <dimension ref="B2:M45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3">
+        <v>2070</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="39">
+        <f>SUM(1*390,5*990,10*240,7.5*210)/D4</f>
+        <v>4.5</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="38"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="38"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3">
+        <v>840</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="40">
+        <f>SUM(60*1,540*5,240*7.5)/D9</f>
+        <v>5.4285714285714288</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3">
+        <v>1980</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="40">
+        <f>SUM(1020*5,10*600,7.5*360)/D14</f>
+        <v>6.9696969696969697</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/C61/sprint0/Planification.xlsx
+++ b/C61/sprint0/Planification.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="686" documentId="11_38EC70ADA78A0EB7174CF7510F4AEA2757950155" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4F8B5ED-19FA-4D27-BF5D-A93070519C8F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F460934-9970-42DE-9F23-83952CB07AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{087A1B5B-7B97-4327-AC94-7D0ECF997B43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{087A1B5B-7B97-4327-AC94-7D0ECF997B43}"/>
   </bookViews>
   <sheets>
     <sheet name="Tâche" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -174,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="79">
   <si>
     <t>Équipe</t>
   </si>
@@ -381,6 +382,36 @@
   </si>
   <si>
     <t>Créer un arbre pour compagnie</t>
+  </si>
+  <si>
+    <t>Étapes (fonctionnalités haut niveau)</t>
+  </si>
+  <si>
+    <t>Sous-étapes</t>
+  </si>
+  <si>
+    <t>SPRINT 1</t>
+  </si>
+  <si>
+    <t>Carlens</t>
+  </si>
+  <si>
+    <t>CSS de base pour les pages Web</t>
+  </si>
+  <si>
+    <t>Maxence</t>
+  </si>
+  <si>
+    <t>Connecter pages Web avec base de donnée</t>
+  </si>
+  <si>
+    <t>Maxence et Carlens</t>
+  </si>
+  <si>
+    <t>Restructuration en design pattern MVC du MiddleWare</t>
+  </si>
+  <si>
+    <t>Implémentation page Création de Compte</t>
   </si>
 </sst>
 </file>
@@ -390,7 +421,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,16 +458,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF9F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -613,11 +680,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -679,12 +809,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF9F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1045,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7EDC20-7B7C-4A7E-972E-FECEFF2E9DC1}">
   <dimension ref="B2:H94"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2450,7 +2637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33C5933-8656-45BF-A701-B91E46E93EF4}">
   <dimension ref="B2:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -3020,4 +3207,319 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA4BA3A-0DAF-4F83-AB3B-26EE796DD82A}">
+  <dimension ref="C3:D47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="42"/>
+    </row>
+    <row r="5" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="44"/>
+      <c r="D5" s="43"/>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="49"/>
+      <c r="D9" s="54"/>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="49"/>
+      <c r="D11" s="51"/>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="49"/>
+      <c r="D13" s="54"/>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="52"/>
+      <c r="D15" s="51"/>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="52"/>
+      <c r="D17" s="54"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="52"/>
+      <c r="D19" s="51"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="52"/>
+      <c r="D21" s="54"/>
+    </row>
+    <row r="22" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="52"/>
+      <c r="D25" s="51"/>
+    </row>
+    <row r="26" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="52"/>
+      <c r="D27" s="54"/>
+    </row>
+    <row r="28" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+    </row>
+    <row r="30" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="52"/>
+      <c r="D31" s="51"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="52"/>
+      <c r="D33" s="51"/>
+    </row>
+    <row r="34" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="52"/>
+      <c r="D35" s="51"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="52"/>
+      <c r="D37" s="56"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="52"/>
+      <c r="D39" s="56"/>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="52"/>
+      <c r="D41" s="57"/>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="52"/>
+      <c r="D43" s="58"/>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+    </row>
+    <row r="45" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+    </row>
+    <row r="47" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/C61/sprint0/Planification.xlsx
+++ b/C61/sprint0/Planification.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F460934-9970-42DE-9F23-83952CB07AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC84E1ED-049B-4892-9E02-DCDF864A45C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{087A1B5B-7B97-4327-AC94-7D0ECF997B43}"/>
   </bookViews>
@@ -483,7 +483,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +499,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF9F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -828,16 +834,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -846,7 +843,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -858,7 +855,22 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3213,8 +3225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA4BA3A-0DAF-4F83-AB3B-26EE796DD82A}">
   <dimension ref="C3:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:D33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3246,279 +3258,279 @@
       <c r="D7" s="46"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="50" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="49"/>
-      <c r="D9" s="54"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="56"/>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="48" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="49"/>
-      <c r="D11" s="51"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="50" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="49"/>
-      <c r="D13" s="54"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="56"/>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="48" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="52"/>
-      <c r="D15" s="51"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="55"/>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="50" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="52"/>
-      <c r="D17" s="54"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="56"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="48" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="52"/>
-      <c r="D19" s="51"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="55"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="50" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="52"/>
-      <c r="D21" s="54"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="56"/>
     </row>
     <row r="22" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="48" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="48" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="52"/>
-      <c r="D25" s="51"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="55"/>
     </row>
     <row r="26" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="50" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="52"/>
-      <c r="D27" s="54"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="56"/>
     </row>
     <row r="28" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="48" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="29" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
     </row>
     <row r="30" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="48" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="52"/>
-      <c r="D31" s="51"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="55"/>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="48" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="52"/>
-      <c r="D33" s="51"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="55"/>
     </row>
     <row r="34" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="48" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="35" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="52"/>
-      <c r="D35" s="51"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="55"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="D36" s="59" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="52"/>
-      <c r="D37" s="56"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="60"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="52" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="52"/>
-      <c r="D39" s="56"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="55" t="s">
+      <c r="D40" s="52" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="52"/>
-      <c r="D41" s="57"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="54"/>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="53" t="s">
+      <c r="D42" s="50" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="43" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="52"/>
-      <c r="D43" s="58"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="51"/>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
     </row>
     <row r="45" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
     </row>
     <row r="47" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="D42:D43"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="D46:D47"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/C61/sprint0/Planification.xlsx
+++ b/C61/sprint0/Planification.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC84E1ED-049B-4892-9E02-DCDF864A45C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D9BB5F-C773-4E94-A5C8-D0904849DBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{087A1B5B-7B97-4327-AC94-7D0ECF997B43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{087A1B5B-7B97-4327-AC94-7D0ECF997B43}"/>
   </bookViews>
   <sheets>
     <sheet name="Tâche" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,6 +505,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -840,10 +846,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -855,22 +876,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3226,7 +3238,7 @@
   <dimension ref="C3:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:D37"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3261,121 +3273,121 @@
       <c r="C8" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="53" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="57"/>
-      <c r="D9" s="56"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="53" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="57"/>
-      <c r="D11" s="55"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="54"/>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="53" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="57"/>
-      <c r="D13" s="56"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="54"/>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="53" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="49"/>
-      <c r="D15" s="55"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="53" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="49"/>
-      <c r="D17" s="56"/>
+      <c r="D17" s="54"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="53" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="49"/>
-      <c r="D19" s="55"/>
+      <c r="D19" s="54"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="53" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="49"/>
-      <c r="D21" s="56"/>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="53" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="54"/>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="61" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="49"/>
-      <c r="D25" s="55"/>
+      <c r="D25" s="62"/>
     </row>
     <row r="26" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="53" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="49"/>
-      <c r="D27" s="56"/>
+      <c r="D27" s="54"/>
     </row>
     <row r="28" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="48" t="s">
@@ -3393,13 +3405,13 @@
       <c r="C30" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="61" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="49"/>
-      <c r="D31" s="55"/>
+      <c r="D31" s="62"/>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" s="48" t="s">
@@ -3411,67 +3423,67 @@
     </row>
     <row r="33" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="49"/>
-      <c r="D33" s="55"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="48" t="s">
+      <c r="D34" s="61" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="35" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="49"/>
-      <c r="D35" s="55"/>
+      <c r="D35" s="62"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="59" t="s">
+      <c r="D36" s="55" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="49"/>
-      <c r="D37" s="60"/>
+      <c r="D37" s="56"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="57" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="49"/>
-      <c r="D39" s="53"/>
+      <c r="D39" s="58"/>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="57" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C41" s="49"/>
-      <c r="D41" s="54"/>
+      <c r="D41" s="59"/>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="53" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="43" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="49"/>
-      <c r="D43" s="51"/>
+      <c r="D43" s="60"/>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" s="48"/>
@@ -3491,46 +3503,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/C61/sprint0/Planification.xlsx
+++ b/C61/sprint0/Planification.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D9BB5F-C773-4E94-A5C8-D0904849DBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B2D792-03C8-4A03-BA1A-7ADC16302F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{087A1B5B-7B97-4327-AC94-7D0ECF997B43}"/>
   </bookViews>
@@ -846,34 +846,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -883,6 +862,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3237,8 +3237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA4BA3A-0DAF-4F83-AB3B-26EE796DD82A}">
   <dimension ref="C3:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3273,145 +3273,145 @@
       <c r="C8" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="52" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="50"/>
-      <c r="D9" s="54"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="52" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="50"/>
-      <c r="D11" s="54"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="60"/>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="52" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="50"/>
-      <c r="D13" s="54"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="52" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="49"/>
-      <c r="D15" s="54"/>
+      <c r="D15" s="60"/>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="52" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="49"/>
-      <c r="D17" s="54"/>
+      <c r="D17" s="60"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="52" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="49"/>
-      <c r="D19" s="54"/>
+      <c r="D19" s="60"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="52" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="49"/>
-      <c r="D21" s="54"/>
+      <c r="D21" s="60"/>
     </row>
     <row r="22" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="52" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="52"/>
-      <c r="D23" s="54"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="54" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="49"/>
-      <c r="D25" s="62"/>
+      <c r="D25" s="55"/>
     </row>
     <row r="26" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="52" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="49"/>
-      <c r="D27" s="54"/>
+      <c r="D27" s="60"/>
     </row>
     <row r="28" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="52" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="29" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="53"/>
     </row>
     <row r="30" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="54" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="31" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="49"/>
-      <c r="D31" s="62"/>
+      <c r="D31" s="55"/>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" s="48" t="s">
@@ -3423,37 +3423,37 @@
     </row>
     <row r="33" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="49"/>
-      <c r="D33" s="52"/>
+      <c r="D33" s="59"/>
     </row>
     <row r="34" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="61" t="s">
+      <c r="D34" s="54" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="35" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="49"/>
-      <c r="D35" s="62"/>
+      <c r="D35" s="55"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="D36" s="56" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="49"/>
-      <c r="D37" s="56"/>
+      <c r="D37" s="57"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="D38" s="50" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3465,25 +3465,25 @@
       <c r="C40" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="50" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C41" s="49"/>
-      <c r="D41" s="59"/>
+      <c r="D41" s="51"/>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="53" t="s">
+      <c r="D42" s="52" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="43" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="49"/>
-      <c r="D43" s="60"/>
+      <c r="D43" s="53"/>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" s="48"/>
@@ -3503,31 +3503,11 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
@@ -3538,11 +3518,31 @@
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
